--- a/fia/20210527/dados/Distribuicoes .xlsx
+++ b/fia/20210527/dados/Distribuicoes .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210527\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9B915-C3A0-49FC-A10A-5ABEAB644C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9E07C9-D31B-4862-9497-AF4C58A9E819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="182" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -332,12 +331,6 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,7 +346,13 @@
     <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,7 +1035,7 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1059,14 +1058,14 @@
     </row>
     <row r="3" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="F4" s="21" t="s">
+      <c r="C4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1074,15 +1073,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>103</v>
-      </c>
-      <c r="F6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1091,20 +1090,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="14">
-        <f>99/100</f>
-        <v>0.99</v>
-      </c>
-      <c r="F7" s="24" t="str">
+        <v>0.85</v>
+      </c>
+      <c r="F7" s="22" t="str">
         <f>CONCATENATE("P(X = ",C8,")")</f>
-        <v>P(X = 100)</v>
-      </c>
-      <c r="G7" s="27">
+        <v>P(X = 10)</v>
+      </c>
+      <c r="G7" s="25">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,FALSE)</f>
-        <v>6.473318558651199E-2</v>
+        <v>4.4895300689109796E-2</v>
       </c>
       <c r="H7" s="30">
         <f>G7</f>
-        <v>6.473318558651199E-2</v>
+        <v>4.4895300689109796E-2</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1112,61 +1110,61 @@
         <v>4</v>
       </c>
       <c r="C8" s="15">
-        <v>100</v>
-      </c>
-      <c r="F8" s="25" t="str">
+        <v>10</v>
+      </c>
+      <c r="F8" s="23" t="str">
         <f>CONCATENATE("P(X ≤ ",C8,")")</f>
-        <v>P(X ≤ 100)</v>
-      </c>
-      <c r="G8" s="28">
+        <v>P(X ≤ 10)</v>
+      </c>
+      <c r="G8" s="26">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,TRUE)</f>
-        <v>8.4974417700458646E-2</v>
+        <v>6.1705386737059831E-2</v>
       </c>
       <c r="H8" s="30">
         <f t="shared" ref="H8:H11" si="0">G8</f>
-        <v>8.4974417700458646E-2</v>
+        <v>6.1705386737059831E-2</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="25" t="str">
+      <c r="F9" s="23" t="str">
         <f>CONCATENATE("P(X &gt; ",C8,")")</f>
-        <v>P(X &gt; 100)</v>
-      </c>
-      <c r="G9" s="28">
+        <v>P(X &gt; 10)</v>
+      </c>
+      <c r="G9" s="26">
         <f>1-G8</f>
-        <v>0.91502558229954134</v>
+        <v>0.93829461326294017</v>
       </c>
       <c r="H9" s="30">
         <f t="shared" si="0"/>
-        <v>0.91502558229954134</v>
+        <v>0.93829461326294017</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="25" t="str">
+      <c r="F10" s="23" t="str">
         <f>CONCATENATE("P(X &gt;= ",C8,")")</f>
-        <v>P(X &gt;= 100)</v>
-      </c>
-      <c r="G10" s="28">
+        <v>P(X &gt;= 10)</v>
+      </c>
+      <c r="G10" s="26">
         <f>G7+G9</f>
-        <v>0.97975876788605332</v>
+        <v>0.98318991395204991</v>
       </c>
       <c r="H10" s="30">
         <f t="shared" si="0"/>
-        <v>0.97975876788605332</v>
+        <v>0.98318991395204991</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="26" t="str">
+      <c r="F11" s="24" t="str">
         <f>CONCATENATE("P(X &lt; ",C8,")")</f>
-        <v>P(X &lt; 100)</v>
-      </c>
-      <c r="G11" s="29">
+        <v>P(X &lt; 10)</v>
+      </c>
+      <c r="G11" s="27">
         <f>G8-G7</f>
-        <v>2.0241232113946656E-2</v>
+        <v>1.6810086047950035E-2</v>
       </c>
       <c r="H11" s="30">
         <f t="shared" si="0"/>
-        <v>2.0241232113946656E-2</v>
+        <v>1.6810086047950035E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1225,14 +1223,14 @@
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="F4" s="21" t="s">
+      <c r="C4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1373,14 +1371,14 @@
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="F4" s="21" t="s">
+      <c r="C4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">

--- a/fia/20210527/dados/Distribuicoes .xlsx
+++ b/fia/20210527/dados/Distribuicoes .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210527\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9E07C9-D31B-4862-9497-AF4C58A9E819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361007C7-B104-4975-A88A-8F290D8B172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Distribuição Binomial</t>
   </si>
@@ -41,15 +41,9 @@
     <t>Probabilidade</t>
   </si>
   <si>
-    <t>Total de indivíduos observados</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Probabilidade de Sucesso</t>
-  </si>
-  <si>
     <t>Legenda:</t>
   </si>
   <si>
@@ -84,6 +78,18 @@
   </si>
   <si>
     <t>Limites</t>
+  </si>
+  <si>
+    <t>X  (k, elementos sucesso)</t>
+  </si>
+  <si>
+    <t>Total de indivíduos observados (n)</t>
+  </si>
+  <si>
+    <t>Probabilidade de Sucesso (p)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,13 +352,16 @@
     <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,131 +1067,135 @@
     </row>
     <row r="3" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="30"/>
+      <c r="F4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.85</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.7</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>CONCATENATE("P(X = ",C8,")")</f>
-        <v>P(X = 10)</v>
+        <v>P(X = 2)</v>
       </c>
       <c r="G7" s="25">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,FALSE)</f>
-        <v>4.4895300689109796E-2</v>
-      </c>
-      <c r="H7" s="30">
+        <v>0.13230000000000008</v>
+      </c>
+      <c r="H7" s="28">
         <f>G7</f>
-        <v>4.4895300689109796E-2</v>
+        <v>0.13230000000000008</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F8" s="23" t="str">
         <f>CONCATENATE("P(X ≤ ",C8,")")</f>
-        <v>P(X ≤ 10)</v>
+        <v>P(X ≤ 2)</v>
       </c>
       <c r="G8" s="26">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,TRUE)</f>
-        <v>6.1705386737059831E-2</v>
-      </c>
-      <c r="H8" s="30">
+        <v>0.16308000000000003</v>
+      </c>
+      <c r="H8" s="28">
         <f t="shared" ref="H8:H11" si="0">G8</f>
-        <v>6.1705386737059831E-2</v>
+        <v>0.16308000000000003</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" s="23" t="str">
         <f>CONCATENATE("P(X &gt; ",C8,")")</f>
-        <v>P(X &gt; 10)</v>
+        <v>P(X &gt; 2)</v>
       </c>
       <c r="G9" s="26">
         <f>1-G8</f>
-        <v>0.93829461326294017</v>
-      </c>
-      <c r="H9" s="30">
+        <v>0.83692</v>
+      </c>
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
-        <v>0.93829461326294017</v>
+        <v>0.83692</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F10" s="23" t="str">
         <f>CONCATENATE("P(X &gt;= ",C8,")")</f>
-        <v>P(X &gt;= 10)</v>
+        <v>P(X &gt;= 2)</v>
       </c>
       <c r="G10" s="26">
         <f>G7+G9</f>
-        <v>0.98318991395204991</v>
-      </c>
-      <c r="H10" s="30">
+        <v>0.96922000000000008</v>
+      </c>
+      <c r="H10" s="28">
         <f t="shared" si="0"/>
-        <v>0.98318991395204991</v>
+        <v>0.96922000000000008</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F11" s="24" t="str">
         <f>CONCATENATE("P(X &lt; ",C8,")")</f>
-        <v>P(X &lt; 10)</v>
+        <v>P(X &lt; 2)</v>
       </c>
       <c r="G11" s="27">
         <f>G8-G7</f>
-        <v>1.6810086047950035E-2</v>
-      </c>
-      <c r="H11" s="30">
+        <v>3.0779999999999946E-2</v>
+      </c>
+      <c r="H11" s="28">
         <f t="shared" si="0"/>
-        <v>1.6810086047950035E-2</v>
+        <v>3.0779999999999946E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
@@ -1218,38 +1231,38 @@
   <sheetData>
     <row r="2" spans="2:7" ht="22.5" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="30"/>
+      <c r="F4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="15">
-        <v>1.04</v>
+        <v>-1.1499999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -1258,60 +1271,60 @@
     <row r="8" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F8" s="5" t="str">
         <f>CONCATENATE("P(X &lt; ",G6,")")</f>
-        <v>P(X &lt; 1,04)</v>
+        <v>P(X &lt; -1,15)</v>
       </c>
       <c r="G8" s="18">
         <f>NORMDIST(G6,C6,C7,1)</f>
-        <v>0.85083004966901865</v>
+        <v>0.12507193563715024</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" s="6" t="str">
         <f>CONCATENATE("P(X &gt; ",G6,")")</f>
-        <v>P(X &gt; 1,04)</v>
+        <v>P(X &gt; -1,15)</v>
       </c>
       <c r="G9" s="16">
         <f>1-G8</f>
-        <v>0.14916995033098135</v>
+        <v>0.87492806436284976</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" s="14">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F15" s="7" t="str">
         <f>CONCATENATE("P(",G12," &lt; X &lt; ",G13,")")</f>
-        <v>P(0 &lt; X &lt; 1,04)</v>
+        <v>P(-0,82 &lt; X &lt; 1,39)</v>
       </c>
       <c r="G15" s="19">
         <f>NORMDIST(G13,C6,C7,1)-NORMDIST(G12,C6,C7,1)</f>
-        <v>0.35083004966901865</v>
+        <v>0.71162750773651795</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1348,7 +1361,7 @@
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1366,30 +1379,30 @@
   <sheetData>
     <row r="2" spans="2:7" ht="22.5" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="30"/>
+      <c r="F4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="20">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="15">
         <v>1.96</v>
@@ -1406,7 +1419,7 @@
       </c>
       <c r="G8" s="18">
         <f>_xlfn.T.DIST(G6,C6-1,TRUE)</f>
-        <v>0.97498823849739491</v>
+        <v>0.96758551035551532</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1416,17 +1429,17 @@
       </c>
       <c r="G9" s="16">
         <f>1-G8</f>
-        <v>2.501176150260509E-2</v>
+        <v>3.2414489644484679E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12" s="13">
         <v>0</v>
@@ -1434,10 +1447,10 @@
     </row>
     <row r="13" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" s="14">
         <v>1.645</v>
@@ -1445,7 +1458,7 @@
     </row>
     <row r="14" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1455,7 +1468,7 @@
       </c>
       <c r="G15" s="19">
         <f>_xlfn.T.DIST(G13,C6-1,TRUE)-_xlfn.T.DIST(G12,C6-1,TRUE)</f>
-        <v>0.44999937788931166</v>
+        <v>0.44179344729643544</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/fia/20210527/dados/Distribuicoes .xlsx
+++ b/fia/20210527/dados/Distribuicoes .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210527\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361007C7-B104-4975-A88A-8F290D8B172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FF225A-F57F-4F58-9560-974FE8478DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Distribuição Binomial</t>
   </si>
@@ -90,16 +90,29 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Quando tem a porcentagem mas, não tem o valor</t>
+  </si>
+  <si>
+    <t>Resultado (A)</t>
+  </si>
+  <si>
+    <t>Multiplicação por elementos</t>
+  </si>
+  <si>
+    <t>Elementos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,8 +169,22 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +212,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,25 +382,47 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +530,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -536,16 +597,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>224107</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2552700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176482</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -575,7 +636,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7200900" y="619125"/>
+          <a:off x="733425" y="5143500"/>
           <a:ext cx="2095500" cy="1186132"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1067,14 +1128,14 @@
     </row>
     <row r="3" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="F4" s="29" t="s">
+      <c r="C4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1082,7 +1143,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>15</v>
@@ -1098,20 +1159,20 @@
       <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="26">
         <v>0.7</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>CONCATENATE("P(X = ",C8,")")</f>
-        <v>P(X = 2)</v>
-      </c>
-      <c r="G7" s="25">
+        <v>P(X = 9)</v>
+      </c>
+      <c r="G7" s="33">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,FALSE)</f>
-        <v>0.13230000000000008</v>
-      </c>
-      <c r="H7" s="28">
+        <v>4.0353606999999972E-2</v>
+      </c>
+      <c r="H7" s="25">
         <f>G7</f>
-        <v>0.13230000000000008</v>
+        <v>4.0353606999999972E-2</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1119,61 +1180,61 @@
         <v>16</v>
       </c>
       <c r="C8" s="15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F8" s="23" t="str">
         <f>CONCATENATE("P(X ≤ ",C8,")")</f>
-        <v>P(X ≤ 2)</v>
-      </c>
-      <c r="G8" s="26">
+        <v>P(X ≤ 9)</v>
+      </c>
+      <c r="G8" s="34">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,TRUE)</f>
-        <v>0.16308000000000003</v>
-      </c>
-      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25">
         <f t="shared" ref="H8:H11" si="0">G8</f>
-        <v>0.16308000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" s="23" t="str">
         <f>CONCATENATE("P(X &gt; ",C8,")")</f>
-        <v>P(X &gt; 2)</v>
-      </c>
-      <c r="G9" s="26">
+        <v>P(X &gt; 9)</v>
+      </c>
+      <c r="G9" s="34">
         <f>1-G8</f>
-        <v>0.83692</v>
-      </c>
-      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
         <f t="shared" si="0"/>
-        <v>0.83692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F10" s="23" t="str">
         <f>CONCATENATE("P(X &gt;= ",C8,")")</f>
-        <v>P(X &gt;= 2)</v>
-      </c>
-      <c r="G10" s="26">
+        <v>P(X &gt;= 9)</v>
+      </c>
+      <c r="G10" s="34">
         <f>G7+G9</f>
-        <v>0.96922000000000008</v>
-      </c>
-      <c r="H10" s="28">
+        <v>4.0353606999999972E-2</v>
+      </c>
+      <c r="H10" s="25">
         <f t="shared" si="0"/>
-        <v>0.96922000000000008</v>
+        <v>4.0353606999999972E-2</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F11" s="24" t="str">
         <f>CONCATENATE("P(X &lt; ",C8,")")</f>
-        <v>P(X &lt; 2)</v>
-      </c>
-      <c r="G11" s="27">
+        <v>P(X &lt; 9)</v>
+      </c>
+      <c r="G11" s="35">
         <f>G8-G7</f>
-        <v>3.0779999999999946E-2</v>
-      </c>
-      <c r="H11" s="28">
+        <v>0.95964639299999999</v>
+      </c>
+      <c r="H11" s="25">
         <f t="shared" si="0"/>
-        <v>3.0779999999999946E-2</v>
+        <v>0.95964639299999999</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1210,87 +1271,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="22.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="22.5" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+    <row r="3" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="F4" s="29" t="s">
+      <c r="C4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="13">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="15">
-        <v>-1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="8" t="str">
+        <f>CONCATENATE("P(X &lt; ",$G$6,")")</f>
+        <v>P(X &lt; 30)</v>
+      </c>
+      <c r="G8" s="31">
+        <f>NORMDIST(G6,C6,C7,1)</f>
+        <v>7.6198530241604755E-24</v>
+      </c>
+      <c r="H8" s="36" t="str">
+        <f>CONCATENATE("P(z &lt; ",ROUNDUP(($G$6-$C$6)/$C$7,2),")")</f>
+        <v>P(z &lt; -10)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="8" t="str">
+        <f>CONCATENATE("P(X &gt; ",G6,")")</f>
+        <v>P(X &gt; 30)</v>
+      </c>
+      <c r="G9" s="32">
+        <f>1-$G$8</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="5" t="str">
-        <f>CONCATENATE("P(X &lt; ",G6,")")</f>
-        <v>P(X &lt; -1,15)</v>
-      </c>
-      <c r="G8" s="18">
-        <f>NORMDIST(G6,C6,C7,1)</f>
-        <v>0.12507193563715024</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="6" t="str">
-        <f>CONCATENATE("P(X &gt; ",G6,")")</f>
-        <v>P(X &gt; -1,15)</v>
-      </c>
-      <c r="G9" s="16">
-        <f>1-G8</f>
-        <v>0.87492806436284976</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="36" t="str">
+        <f>CONCATENATE("P(z &gt; ",ROUNDUP(($G$6-$C$6)/$C$7,2),")")</f>
+        <v>P(z &gt; -10)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
         <v>4</v>
       </c>
@@ -1298,10 +1370,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="13">
-        <v>-0.82</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
@@ -1309,48 +1381,99 @@
         <v>11</v>
       </c>
       <c r="G13" s="14">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="7" t="str">
-        <f>CONCATENATE("P(",G12," &lt; X &lt; ",G13,")")</f>
-        <v>P(-0,82 &lt; X &lt; 1,39)</v>
-      </c>
-      <c r="G15" s="19">
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="str">
+        <f>CONCATENATE("P(",$G$12," &lt; X &lt; ",$G$13,")")</f>
+        <v>P(-1,48 &lt; X &lt; 2,05)</v>
+      </c>
+      <c r="G15" s="30">
         <f>NORMDIST(G13,C6,C7,1)-NORMDIST(G12,C6,C7,1)</f>
-        <v>0.71162750773651795</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>4.256625014420804E-55</v>
+      </c>
+      <c r="H15" s="37" t="str">
+        <f>CONCATENATE("P(",ROUNDUP(($G$12-$C$6)/$C$7,2)," &lt; z &lt; ",ROUNDUP(($G$13-$C$6)/$C$7,2),")")</f>
+        <v>P(-16,3 &lt; z &lt; -15,59)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="27">
+        <f>NORMSINV(C20)</f>
+        <v>-1.2815515655446006</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="38">
+        <f>1-$G$8</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="39">
+        <v>600</v>
+      </c>
+      <c r="H22" s="39">
+        <f>F22*G22</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1361,7 +1484,7 @@
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1384,14 +1507,14 @@
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="F4" s="29" t="s">
+      <c r="C4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">

--- a/fia/20210527/dados/Distribuicoes .xlsx
+++ b/fia/20210527/dados/Distribuicoes .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210527\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FF225A-F57F-4F58-9560-974FE8478DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B33B9-2916-4875-8434-1064BBCD2BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binomial" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Distribuição Binomial</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Elementos</t>
+  </si>
+  <si>
+    <t>Probabilidade Acumulativa</t>
   </si>
 </sst>
 </file>
@@ -389,40 +392,40 @@
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1128,14 +1131,14 @@
     </row>
     <row r="3" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="39"/>
+      <c r="F4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1166,7 +1169,7 @@
         <f>CONCATENATE("P(X = ",C8,")")</f>
         <v>P(X = 9)</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,FALSE)</f>
         <v>4.0353606999999972E-2</v>
       </c>
@@ -1186,7 +1189,7 @@
         <f>CONCATENATE("P(X ≤ ",C8,")")</f>
         <v>P(X ≤ 9)</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="32">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,TRUE)</f>
         <v>1</v>
       </c>
@@ -1200,7 +1203,7 @@
         <f>CONCATENATE("P(X &gt; ",C8,")")</f>
         <v>P(X &gt; 9)</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <f>1-G8</f>
         <v>0</v>
       </c>
@@ -1214,7 +1217,7 @@
         <f>CONCATENATE("P(X &gt;= ",C8,")")</f>
         <v>P(X &gt;= 9)</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <f>G7+G9</f>
         <v>4.0353606999999972E-2</v>
       </c>
@@ -1228,7 +1231,7 @@
         <f>CONCATENATE("P(X &lt; ",C8,")")</f>
         <v>P(X &lt; 9)</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <f>G8-G7</f>
         <v>0.95964639299999999</v>
       </c>
@@ -1273,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1298,14 +1301,14 @@
     </row>
     <row r="3" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="39"/>
+      <c r="F4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1313,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="13">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="15">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1329,35 +1332,35 @@
         <v>9</v>
       </c>
       <c r="C7" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F8" s="8" t="str">
         <f>CONCATENATE("P(X &lt; ",$G$6,")")</f>
-        <v>P(X &lt; 30)</v>
-      </c>
-      <c r="G8" s="31">
+        <v>P(X &lt; 39)</v>
+      </c>
+      <c r="G8" s="29">
         <f>NORMDIST(G6,C6,C7,1)</f>
-        <v>7.6198530241604755E-24</v>
-      </c>
-      <c r="H8" s="36" t="str">
+        <v>0.99999898291675748</v>
+      </c>
+      <c r="H8" s="34" t="str">
         <f>CONCATENATE("P(z &lt; ",ROUNDUP(($G$6-$C$6)/$C$7,2),")")</f>
-        <v>P(z &lt; -10)</v>
+        <v>P(z &lt; 4,75)</v>
       </c>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" s="8" t="str">
         <f>CONCATENATE("P(X &gt; ",G6,")")</f>
-        <v>P(X &gt; 30)</v>
-      </c>
-      <c r="G9" s="32">
+        <v>P(X &gt; 39)</v>
+      </c>
+      <c r="G9" s="30">
         <f>1-$G$8</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="36" t="str">
+        <v>1.017083242516037E-6</v>
+      </c>
+      <c r="H9" s="34" t="str">
         <f>CONCATENATE("P(z &gt; ",ROUNDUP(($G$6-$C$6)/$C$7,2),")")</f>
-        <v>P(z &gt; -10)</v>
+        <v>P(z &gt; 4,75)</v>
       </c>
     </row>
     <row r="10" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1370,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="13">
-        <v>-1.48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1381,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="14">
-        <v>2.0499999999999998</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1392,15 +1395,15 @@
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="9" t="str">
         <f>CONCATENATE("P(",$G$12," &lt; X &lt; ",$G$13,")")</f>
-        <v>P(-1,48 &lt; X &lt; 2,05)</v>
-      </c>
-      <c r="G15" s="30">
+        <v>P(16 &lt; X &lt; 22)</v>
+      </c>
+      <c r="G15" s="28">
         <f>NORMDIST(G13,C6,C7,1)-NORMDIST(G12,C6,C7,1)</f>
-        <v>4.256625014420804E-55</v>
-      </c>
-      <c r="H15" s="37" t="str">
+        <v>0.53280720734255616</v>
+      </c>
+      <c r="H15" s="35" t="str">
         <f>CONCATENATE("P(",ROUNDUP(($G$12-$C$6)/$C$7,2)," &lt; z &lt; ",ROUNDUP(($G$13-$C$6)/$C$7,2),")")</f>
-        <v>P(-16,3 &lt; z &lt; -15,59)</v>
+        <v>P(-1 &lt; z &lt; 0,5)</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1417,10 +1420,10 @@
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
@@ -1432,7 +1435,7 @@
       </c>
       <c r="C21" s="27">
         <f>NORMSINV(C20)</f>
-        <v>-1.2815515655446006</v>
+        <v>1.2815515655446006</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>3</v>
@@ -1445,16 +1448,20 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="38">
+      <c r="C22" s="1">
+        <f>_xlfn.NORM.S.INV(C20)</f>
+        <v>1.2815515655446006</v>
+      </c>
+      <c r="F22" s="36">
         <f>1-$G$8</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="39">
+        <v>1.017083242516037E-6</v>
+      </c>
+      <c r="G22" s="37">
         <v>600</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="37">
         <f>F22*G22</f>
-        <v>600</v>
+        <v>6.1024994550962219E-4</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1507,14 +1514,14 @@
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="39"/>
+      <c r="F4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">

--- a/fia/20210527/dados/Distribuicoes .xlsx
+++ b/fia/20210527/dados/Distribuicoes .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210527\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B33B9-2916-4875-8434-1064BBCD2BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE0DC9-A0FE-4C81-AA9E-7CD4DED06C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Distribuição Binomial</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Probabilidade Acumulativa</t>
+  </si>
+  <si>
+    <t>Valor x alfa</t>
+  </si>
+  <si>
+    <t>Saber o valor de x a partir do valor z</t>
   </si>
 </sst>
 </file>
@@ -600,16 +606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2552700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>176482</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -639,7 +645,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="733425" y="5143500"/>
+          <a:off x="13182600" y="438150"/>
           <a:ext cx="2095500" cy="1186132"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1108,7 +1114,7 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1152,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>15</v>
@@ -1163,19 +1169,19 @@
         <v>18</v>
       </c>
       <c r="C7" s="26">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>CONCATENATE("P(X = ",C8,")")</f>
-        <v>P(X = 9)</v>
+        <v>P(X = 3)</v>
       </c>
       <c r="G7" s="31">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,FALSE)</f>
-        <v>4.0353606999999972E-2</v>
+        <v>0.11718750000000003</v>
       </c>
       <c r="H7" s="25">
         <f>G7</f>
-        <v>4.0353606999999972E-2</v>
+        <v>0.11718750000000003</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1183,61 +1189,61 @@
         <v>16</v>
       </c>
       <c r="C8" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F8" s="23" t="str">
         <f>CONCATENATE("P(X ≤ ",C8,")")</f>
-        <v>P(X ≤ 9)</v>
+        <v>P(X ≤ 3)</v>
       </c>
       <c r="G8" s="32">
         <f>_xlfn.BINOM.DIST(C8,C6,C7,TRUE)</f>
-        <v>1</v>
+        <v>0.17187500000000006</v>
       </c>
       <c r="H8" s="25">
         <f t="shared" ref="H8:H11" si="0">G8</f>
-        <v>1</v>
+        <v>0.17187500000000006</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" s="23" t="str">
         <f>CONCATENATE("P(X &gt; ",C8,")")</f>
-        <v>P(X &gt; 9)</v>
+        <v>P(X &gt; 3)</v>
       </c>
       <c r="G9" s="32">
         <f>1-G8</f>
-        <v>0</v>
+        <v>0.828125</v>
       </c>
       <c r="H9" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F10" s="23" t="str">
         <f>CONCATENATE("P(X &gt;= ",C8,")")</f>
-        <v>P(X &gt;= 9)</v>
+        <v>P(X &gt;= 3)</v>
       </c>
       <c r="G10" s="32">
         <f>G7+G9</f>
-        <v>4.0353606999999972E-2</v>
+        <v>0.9453125</v>
       </c>
       <c r="H10" s="25">
         <f t="shared" si="0"/>
-        <v>4.0353606999999972E-2</v>
+        <v>0.9453125</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F11" s="24" t="str">
         <f>CONCATENATE("P(X &lt; ",C8,")")</f>
-        <v>P(X &lt; 9)</v>
+        <v>P(X &lt; 3)</v>
       </c>
       <c r="G11" s="33">
         <f>G8-G7</f>
-        <v>0.95964639299999999</v>
+        <v>5.4687500000000028E-2</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="0"/>
-        <v>0.95964639299999999</v>
+        <v>5.4687500000000028E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1277,7 +1283,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B20" sqref="B20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1316,13 +1322,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="15">
-        <v>39</v>
+        <v>0.95</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1332,35 +1338,35 @@
         <v>9</v>
       </c>
       <c r="C7" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F8" s="8" t="str">
         <f>CONCATENATE("P(X &lt; ",$G$6,")")</f>
-        <v>P(X &lt; 39)</v>
+        <v>P(X &lt; 0,95)</v>
       </c>
       <c r="G8" s="29">
         <f>NORMDIST(G6,C6,C7,1)</f>
-        <v>0.99999898291675748</v>
+        <v>0.82894387369151812</v>
       </c>
       <c r="H8" s="34" t="str">
         <f>CONCATENATE("P(z &lt; ",ROUNDUP(($G$6-$C$6)/$C$7,2),")")</f>
-        <v>P(z &lt; 4,75)</v>
+        <v>P(z &lt; 0,95)</v>
       </c>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" s="8" t="str">
         <f>CONCATENATE("P(X &gt; ",G6,")")</f>
-        <v>P(X &gt; 39)</v>
+        <v>P(X &gt; 0,95)</v>
       </c>
       <c r="G9" s="30">
         <f>1-$G$8</f>
-        <v>1.017083242516037E-6</v>
+        <v>0.17105612630848188</v>
       </c>
       <c r="H9" s="34" t="str">
         <f>CONCATENATE("P(z &gt; ",ROUNDUP(($G$6-$C$6)/$C$7,2),")")</f>
-        <v>P(z &gt; 4,75)</v>
+        <v>P(z &gt; 0,95)</v>
       </c>
     </row>
     <row r="10" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1373,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="13">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1384,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="14">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1395,15 +1401,15 @@
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="9" t="str">
         <f>CONCATENATE("P(",$G$12," &lt; X &lt; ",$G$13,")")</f>
-        <v>P(16 &lt; X &lt; 22)</v>
+        <v>P(89 &lt; X &lt; 107)</v>
       </c>
       <c r="G15" s="28">
         <f>NORMDIST(G13,C6,C7,1)-NORMDIST(G12,C6,C7,1)</f>
-        <v>0.53280720734255616</v>
+        <v>0</v>
       </c>
       <c r="H15" s="35" t="str">
         <f>CONCATENATE("P(",ROUNDUP(($G$12-$C$6)/$C$7,2)," &lt; z &lt; ",ROUNDUP(($G$13-$C$6)/$C$7,2),")")</f>
-        <v>P(-1 &lt; z &lt; 0,5)</v>
+        <v>P(89 &lt; z &lt; 107)</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1423,7 +1429,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="13">
-        <v>0.9</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
@@ -1435,7 +1441,7 @@
       </c>
       <c r="C21" s="27">
         <f>NORMSINV(C20)</f>
-        <v>1.2815515655446006</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>3</v>
@@ -1450,25 +1456,37 @@
     <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <f>_xlfn.NORM.S.INV(C20)</f>
-        <v>1.2815515655446006</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="F22" s="36">
         <f>1-$G$8</f>
-        <v>1.017083242516037E-6</v>
+        <v>0.17105612630848188</v>
       </c>
       <c r="G22" s="37">
         <v>600</v>
       </c>
       <c r="H22" s="37">
         <f>F22*G22</f>
-        <v>6.1024994550962219E-4</v>
+        <v>102.63367578508912</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="27">
+        <f>(C21*C7)+C6</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
     <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
